--- a/整理表格/合约非交易资金流水.xlsx
+++ b/整理表格/合约非交易资金流水.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/整理表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC7E227-DF79-5B48-BFD6-4D3AE9D3E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8093CD-7BF5-084F-8590-B18CA0C1048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="3000" windowWidth="22940" windowHeight="11380" xr2:uid="{F97FB9C1-F068-B240-8EF8-9D537D1B16DC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$E$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>时间(UTC)</t>
   </si>
@@ -186,13 +186,17 @@
   </si>
   <si>
     <t>0.80000000</t>
+  </si>
+  <si>
+    <t>合约非交易资金流水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +210,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -218,6 +223,23 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,24 +273,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,427 +621,438 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:E24"/>
+      <selection activeCell="E7" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="45">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="10" fitToHeight="10" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
